--- a/Connectons.xlsx
+++ b/Connectons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberProjects\Full_NetSec-_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61334D5C-6249-4265-A145-D7F382959743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9023FF3-7EA5-4D6F-BFE2-815B3986152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{D751A3FB-49E0-45D9-9BDD-52EDE75FD06E}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="250">
   <si>
     <t>Copper Straight-Through</t>
   </si>
@@ -330,6 +331,462 @@
   </si>
   <si>
     <t>Switch8: FastEthernet0/1</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Router0</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>Router1</t>
+  </si>
+  <si>
+    <t>Router2</t>
+  </si>
+  <si>
+    <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>Router3</t>
+  </si>
+  <si>
+    <t>192.168.3.1</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>Router4</t>
+  </si>
+  <si>
+    <t>192.168.4.1</t>
+  </si>
+  <si>
+    <t>192.168.5.1</t>
+  </si>
+  <si>
+    <t>Router5</t>
+  </si>
+  <si>
+    <t>192.168.6.1</t>
+  </si>
+  <si>
+    <t>Router6</t>
+  </si>
+  <si>
+    <t>192.168.7.1</t>
+  </si>
+  <si>
+    <t>Router7</t>
+  </si>
+  <si>
+    <t>Router8</t>
+  </si>
+  <si>
+    <t>192.168.8.1</t>
+  </si>
+  <si>
+    <t>Switch9: Fa0/3</t>
+  </si>
+  <si>
+    <t>Switch9: Fa0/2</t>
+  </si>
+  <si>
+    <t>Switch9: Fa0/1</t>
+  </si>
+  <si>
+    <t>Router0: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router7: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router7: S0/1/1</t>
+  </si>
+  <si>
+    <t>Router5: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router5: S0/1/1</t>
+  </si>
+  <si>
+    <t>Router8: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router7: S0/2/0</t>
+  </si>
+  <si>
+    <t>Router6: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router1: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router1: S0/1/1</t>
+  </si>
+  <si>
+    <t>Router3: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router1: S0/2/0</t>
+  </si>
+  <si>
+    <t>Router2: S0/1/0</t>
+  </si>
+  <si>
+    <t>Router1: S0/2/1</t>
+  </si>
+  <si>
+    <t>Router4: S0/1/0</t>
+  </si>
+  <si>
+    <t>Switch0: Fa0/1</t>
+  </si>
+  <si>
+    <t>Switch2: Fa0/1</t>
+  </si>
+  <si>
+    <t>Switch3: Fa0/1</t>
+  </si>
+  <si>
+    <t>Switch3: Fa0/2</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/1</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/2</t>
+  </si>
+  <si>
+    <t>Switch6: Fa0/1</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>192.168.6.10</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>192.168.3.10</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>192.168.4.10</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>192.168.5.10</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>192.168.5.11</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>192.168.2.10</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>192.168.7.10</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>192.168.0.10</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>192.168.8.10</t>
+  </si>
+  <si>
+    <t>Connected To (Device:Interface)</t>
+  </si>
+  <si>
+    <t>G0/0/0</t>
+  </si>
+  <si>
+    <t>192.168.0.1/24</t>
+  </si>
+  <si>
+    <t>Switch8: Fa0/3</t>
+  </si>
+  <si>
+    <t>S0/1/0</t>
+  </si>
+  <si>
+    <t>10.0.0.1/30</t>
+  </si>
+  <si>
+    <t>10.0.0.10/30</t>
+  </si>
+  <si>
+    <t>S0/1/1</t>
+  </si>
+  <si>
+    <t>10.0.5.1/30</t>
+  </si>
+  <si>
+    <t>Router7: S0/2/1</t>
+  </si>
+  <si>
+    <t>S0/2/0</t>
+  </si>
+  <si>
+    <t>10.0.0.14/30</t>
+  </si>
+  <si>
+    <t>S0/2/1</t>
+  </si>
+  <si>
+    <t>10.0.0.18/30</t>
+  </si>
+  <si>
+    <t>10.0.0.13/30</t>
+  </si>
+  <si>
+    <t>192.168.2.1/24</t>
+  </si>
+  <si>
+    <t>Switch5: Fa0/5</t>
+  </si>
+  <si>
+    <t>192.168.3.1/24</t>
+  </si>
+  <si>
+    <t>Switch1: Fa0/4</t>
+  </si>
+  <si>
+    <t>G0/0/1</t>
+  </si>
+  <si>
+    <t>192.168.10.1/24</t>
+  </si>
+  <si>
+    <t>Switch10: Fa0/3</t>
+  </si>
+  <si>
+    <t>10.0.2.2/30</t>
+  </si>
+  <si>
+    <t>192.168.4.1/24</t>
+  </si>
+  <si>
+    <t>192.168.5.1/24</t>
+  </si>
+  <si>
+    <t>Switch3: Fa0/3</t>
+  </si>
+  <si>
+    <t>10.0.0.17/30</t>
+  </si>
+  <si>
+    <t>192.168.6.1/24</t>
+  </si>
+  <si>
+    <t>Switch0: Fa0/2</t>
+  </si>
+  <si>
+    <t>10.0.0.26/30</t>
+  </si>
+  <si>
+    <t>10.0.0.30/30</t>
+  </si>
+  <si>
+    <t>192.168.7.1/24</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/7</t>
+  </si>
+  <si>
+    <t>10.0.0.9/30</t>
+  </si>
+  <si>
+    <t>10.0.0.2/30</t>
+  </si>
+  <si>
+    <t>10.0.0.23/30</t>
+  </si>
+  <si>
+    <t>10.0.0.25/30</t>
+  </si>
+  <si>
+    <t>10.0.0.7/30</t>
+  </si>
+  <si>
+    <t>192.168.8.1/24</t>
+  </si>
+  <si>
+    <t>10.0.0.29/30</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Connected Switch:Port</t>
+  </si>
+  <si>
+    <t>Router (via Switch)</t>
+  </si>
+  <si>
+    <t>Router Interface IP</t>
+  </si>
+  <si>
+    <t>Assigned PC IP</t>
+  </si>
+  <si>
+    <t>Switch5: Fa0/2</t>
+  </si>
+  <si>
+    <t>Switch5: Fa0/3</t>
+  </si>
+  <si>
+    <t>192.168.2.11</t>
+  </si>
+  <si>
+    <t>Switch1: Fa0/3</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/3</t>
+  </si>
+  <si>
+    <t>192.168.7.11</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/4</t>
+  </si>
+  <si>
+    <t>192.168.7.12</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/5</t>
+  </si>
+  <si>
+    <t>192.168.7.13</t>
+  </si>
+  <si>
+    <t>Switch4: Fa0/6</t>
+  </si>
+  <si>
+    <t>192.168.7.14</t>
+  </si>
+  <si>
+    <t>192.168.7.15</t>
+  </si>
+  <si>
+    <t>Switch6: Fa0/2</t>
+  </si>
+  <si>
+    <t>Switch7: Fa0/1</t>
+  </si>
+  <si>
+    <t>Router0 (via S8)</t>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Assigned Server IP</t>
+  </si>
+  <si>
+    <t>Web Server</t>
+  </si>
+  <si>
+    <t>Switch6: Fa0/3</t>
+  </si>
+  <si>
+    <t>192.168.4.20</t>
+  </si>
+  <si>
+    <t>Web Server 2</t>
+  </si>
+  <si>
+    <t>192.168.8.20</t>
+  </si>
+  <si>
+    <t>Syslog Server</t>
+  </si>
+  <si>
+    <t>Switch10: Fa0/1</t>
+  </si>
+  <si>
+    <t>192.168.10.20</t>
+  </si>
+  <si>
+    <t>NTP Server</t>
+  </si>
+  <si>
+    <t>Switch10: Fa0/2</t>
+  </si>
+  <si>
+    <t>192.168.10.21</t>
+  </si>
+  <si>
+    <t>RADIUS Server</t>
+  </si>
+  <si>
+    <t>Switch1: Fa0/1</t>
+  </si>
+  <si>
+    <t>192.168.3.20</t>
+  </si>
+  <si>
+    <t>TACACS+ Server</t>
+  </si>
+  <si>
+    <t>Switch1: Fa0/2</t>
+  </si>
+  <si>
+    <t>192.168.3.21</t>
   </si>
 </sst>
 </file>
@@ -373,12 +830,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -715,23 +1175,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B114811-49D0-4155-B60D-649CD2E9625E}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,8 +1221,29 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -770,8 +1262,29 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -790,8 +1303,27 @@
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -810,8 +1342,29 @@
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -830,8 +1383,27 @@
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -850,8 +1422,27 @@
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -870,8 +1461,27 @@
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -890,8 +1500,29 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -910,8 +1541,27 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -930,8 +1580,29 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -950,8 +1621,27 @@
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -970,8 +1660,27 @@
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -990,8 +1699,29 @@
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1010,8 +1740,27 @@
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1030,8 +1779,27 @@
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1050,8 +1818,29 @@
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1070,8 +1859,27 @@
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1090,8 +1898,21 @@
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1110,8 +1931,23 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1130,8 +1966,21 @@
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1150,8 +1999,26 @@
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1170,8 +2037,24 @@
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1190,8 +2073,24 @@
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1210,8 +2109,24 @@
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1230,8 +2145,26 @@
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1250,8 +2183,24 @@
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1270,8 +2219,13 @@
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="M27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1290,8 +2244,12 @@
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1310,8 +2268,27 @@
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1330,8 +2307,27 @@
       <c r="F30" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1350,8 +2346,27 @@
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1370,8 +2385,27 @@
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+    </row>
+    <row r="33" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1390,8 +2424,27 @@
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1410,8 +2463,27 @@
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1430,8 +2502,27 @@
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1450,8 +2541,27 @@
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+    </row>
+    <row r="37" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1470,8 +2580,27 @@
       <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1490,8 +2619,23 @@
       <c r="F38" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1510,8 +2654,23 @@
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1530,8 +2689,23 @@
       <c r="F40" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1550,8 +2724,23 @@
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1569,6 +2758,191 @@
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H44" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H48" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H49" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H51" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H52" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/Connectons.xlsx
+++ b/Connectons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CyberProjects\Full_NetSec-_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9023FF3-7EA5-4D6F-BFE2-815B3986152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAA2581-6905-4C80-A06E-F9738215993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{D751A3FB-49E0-45D9-9BDD-52EDE75FD06E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="254">
   <si>
     <t>Copper Straight-Through</t>
   </si>
@@ -787,6 +786,18 @@
   </si>
   <si>
     <t>192.168.3.21</t>
+  </si>
+  <si>
+    <t>Switch7</t>
+  </si>
+  <si>
+    <t>Switch2:Gig0/1</t>
+  </si>
+  <si>
+    <t>Switch2</t>
+  </si>
+  <si>
+    <t>Switch7:Gig0/1</t>
   </si>
 </sst>
 </file>
@@ -1175,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B114811-49D0-4155-B60D-649CD2E9625E}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,8 +1200,7 @@
     <col min="4" max="4" width="6.33203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
@@ -1912,7 +1922,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2945,6 +2955,22 @@
         <v>249</v>
       </c>
     </row>
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>250</v>
+      </c>
+      <c r="I53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>252</v>
+      </c>
+      <c r="I54" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
